--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3427A5F-4AE6-40D5-B116-07560364F5A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14301891-5704-45AE-8159-5AAB6C236F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行走速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,26 @@
   </si>
   <si>
     <t>eatWidth#int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交互范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interativeRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念力史莱姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,21 +417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,19 +441,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -443,27 +464,30 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -472,6 +496,55 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14301891-5704-45AE-8159-5AAB6C236F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EDA60A-EFF6-49DD-A03E-1F9309F23CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eatLong#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eatWidth#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可交互范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +84,14 @@
   </si>
   <si>
     <t>念力史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatLong#float#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatWidth#float#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -470,13 +470,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -493,10 +493,10 @@
         <v>300</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -516,13 +516,13 @@
         <v>600</v>
       </c>
       <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -539,13 +539,13 @@
         <v>200</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EDA60A-EFF6-49DD-A03E-1F9309F23CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C61BBB-2FDE-4EB9-A8F4-5D90F550F436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>0.8</v>
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <v>0.8</v>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C61BBB-2FDE-4EB9-A8F4-5D90F550F436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981DDF9-880D-4385-847E-D862CD5B8504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,18 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interativeRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常规史莱姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流体史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>念力史莱姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +84,18 @@
   </si>
   <si>
     <t>eatWidth#float#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interativeRange#int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewRadius#int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,9 +435,10 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +460,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -470,21 +478,24 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -493,27 +504,30 @@
         <v>250</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -522,30 +536,10 @@
         <v>0.8</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>250</v>
-      </c>
-      <c r="E5">
-        <v>0.8</v>
-      </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
         <v>5</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DarkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981DDF9-880D-4385-847E-D862CD5B8504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191595D-DF80-4036-A9DB-981AFF59E00C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
         <v>250</v>
@@ -524,22 +524,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981DDF9-880D-4385-847E-D862CD5B8504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCD5B7-F3C6-487F-AF43-52C865814E86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,56 +47,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>walkSpeed#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳跃力度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吞噬宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交互范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念力史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatLong#float#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eatWidth#float#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interativeRange#int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewRadius#int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walkSpeed#float#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jumpForce#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可交互范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>念力史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eatLong#float#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eatWidth#float#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interativeRange#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewRadius#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,19 +448,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -472,22 +471,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -495,10 +494,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
         <v>250</v>
@@ -521,25 +520,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCD5B7-F3C6-487F-AF43-52C865814E86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4401FDC4-0A9D-4E71-8025-70FFB5F82A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" activeCellId="1" sqref="C4 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <v>50</v>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4401FDC4-0A9D-4E71-8025-70FFB5F82A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06A06D-D7C3-4AF1-8E37-992BFAF37D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-240" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="C4 E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,10 +503,10 @@
         <v>250</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06A06D-D7C3-4AF1-8E37-992BFAF37D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB22FC-2FE4-4AEE-981C-C9836974B07C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB22FC-2FE4-4AEE-981C-C9836974B07C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5617C-534F-4E6D-840B-58D1135DA682}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5617C-534F-4E6D-840B-58D1135DA682}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614FA6B-2ADC-458C-B1F2-CE8BB371348F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
         <v>250</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F3">
         <v>1</v>
